--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,58 +436,78 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>955182.88</v>
+        <v>57837.43</v>
+      </c>
+      <c r="C2" t="n">
+        <v>57522.86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50272.78</v>
+        <v>77781.42</v>
+      </c>
+      <c r="C3" t="n">
+        <v>78555.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78128.38</v>
+        <v>15542.69</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15483.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15232.5</v>
+        <v>164483.53</v>
+      </c>
+      <c r="C5" t="n">
+        <v>165348.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164216.78</v>
+        <v>5761.57</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5762.1</v>
       </c>
     </row>
     <row r="7">
@@ -497,157 +517,218 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59422.88</v>
+        <v>58884.12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>57383.74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71535.83</v>
+        <v>20154.27</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20281.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90796.53999999999</v>
+        <v>22449.28</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22444.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8168.71</v>
+        <v>71288.75</v>
+      </c>
+      <c r="C10" t="n">
+        <v>71634.56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74757.58</v>
+        <v>91092.12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>91072.45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20388.98</v>
+        <v>148.15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>151.45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22632.76</v>
+        <v>986.67</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1009.85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19915.89</v>
+        <v>8070.99</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8200.209999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17752.26</v>
+        <v>74774.69</v>
+      </c>
+      <c r="C15" t="n">
+        <v>74332.42999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11129.17</v>
+        <v>3633.33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3625.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57566.53</v>
+        <v>4340.97</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4310.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>142.95</v>
+        <v>20124.07</v>
+      </c>
+      <c r="C18" t="n">
+        <v>20052.71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4285.25</v>
+        <v>17622.22</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17731.57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5759.8</v>
+        <v>11128.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11202.22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>989.86</v>
+        <v>231170.54</v>
+      </c>
+      <c r="C21" t="n">
+        <v>231878.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>232360.23</v>
+        <v>47863.77</v>
+      </c>
+      <c r="C22" t="n">
+        <v>47899.21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>957275.3100000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>957984.29</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,287 +443,221 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57837.43</v>
-      </c>
-      <c r="C2" t="n">
-        <v>57522.86</v>
+        <v>957984.29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77781.42</v>
-      </c>
-      <c r="C3" t="n">
-        <v>78555.98</v>
+        <v>47899.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15542.69</v>
-      </c>
-      <c r="C4" t="n">
-        <v>15483.59</v>
+        <v>57522.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>164483.53</v>
-      </c>
-      <c r="C5" t="n">
-        <v>165348.66</v>
+        <v>78555.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5761.57</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5762.1</v>
+        <v>15483.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58884.12</v>
-      </c>
-      <c r="C7" t="n">
-        <v>57383.74</v>
+        <v>165348.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20154.27</v>
-      </c>
-      <c r="C8" t="n">
-        <v>20281.88</v>
+        <v>5762.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22449.28</v>
-      </c>
-      <c r="C9" t="n">
-        <v>22444.09</v>
+        <v>57383.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71288.75</v>
-      </c>
-      <c r="C10" t="n">
-        <v>71634.56</v>
+        <v>20281.88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91092.12</v>
-      </c>
-      <c r="C11" t="n">
-        <v>91072.45</v>
+        <v>22444.09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>148.15</v>
-      </c>
-      <c r="C12" t="n">
-        <v>151.45</v>
+        <v>71634.56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>986.67</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1009.85</v>
+        <v>91072.45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8070.99</v>
-      </c>
-      <c r="C14" t="n">
-        <v>8200.209999999999</v>
+        <v>151.45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>74774.69</v>
-      </c>
-      <c r="C15" t="n">
-        <v>74332.42999999999</v>
+        <v>1009.85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3633.33</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3625.45</v>
+        <v>8200.209999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4340.97</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4310.19</v>
+        <v>74332.42999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20124.07</v>
-      </c>
-      <c r="C18" t="n">
-        <v>20052.71</v>
+        <v>3625.45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17622.22</v>
-      </c>
-      <c r="C19" t="n">
-        <v>17731.57</v>
+        <v>4310.19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11128.5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>11202.22</v>
+        <v>20052.71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>231170.54</v>
-      </c>
-      <c r="C21" t="n">
-        <v>231878.3</v>
+        <v>17731.57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47863.77</v>
-      </c>
-      <c r="C22" t="n">
-        <v>47899.21</v>
+        <v>11202.22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>957275.3100000001</v>
-      </c>
-      <c r="C23" t="n">
-        <v>957984.29</v>
+        <v>231878.3</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,225 +439,288 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>957984.29</v>
+        <v>57522.86</v>
+      </c>
+      <c r="C2" t="n">
+        <v>57731.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47899.21</v>
+        <v>78555.98</v>
+      </c>
+      <c r="C3" t="n">
+        <v>77809.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57522.86</v>
+        <v>15483.59</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15206.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78555.98</v>
+        <v>165348.66</v>
+      </c>
+      <c r="C5" t="n">
+        <v>164426.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15483.59</v>
+        <v>5762.1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5757.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165348.66</v>
+        <v>57383.74</v>
+      </c>
+      <c r="C7" t="n">
+        <v>56743.94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5762.1</v>
-      </c>
+        <v>20281.88</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57383.74</v>
-      </c>
+        <v>22444.09</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20281.88</v>
-      </c>
+        <v>71634.56</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22444.09</v>
+        <v>91072.45</v>
+      </c>
+      <c r="C11" t="n">
+        <v>90675.48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71634.56</v>
+        <v>151.45</v>
+      </c>
+      <c r="C12" t="n">
+        <v>154.56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91072.45</v>
+        <v>1009.85</v>
+      </c>
+      <c r="C13" t="n">
+        <v>988.5599999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>151.45</v>
+        <v>8200.209999999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7943.86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1009.85</v>
+        <v>74332.42999999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>74052</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8200.209999999999</v>
+        <v>3625.45</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3676.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>74332.42999999999</v>
+        <v>4310.19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4363.18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3625.45</v>
-      </c>
+        <v>20052.71</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4310.19</v>
+        <v>17731.57</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17820.95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20052.71</v>
+        <v>11202.22</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11152.86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17731.57</v>
+        <v>231878.3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>231829.55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11202.22</v>
+        <v>47899.21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>51270.78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231878.3</v>
+        <v>957984.29</v>
+      </c>
+      <c r="C23" t="n">
+        <v>820332.47</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>57731.17</v>
       </c>
+      <c r="D2" t="n">
+        <v>42236.37</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>77809.84</v>
       </c>
+      <c r="D3" t="n">
+        <v>78025.36</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>15206.27</v>
       </c>
+      <c r="D4" t="n">
+        <v>15624.13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>164426.67</v>
       </c>
+      <c r="D5" t="n">
+        <v>165160.98</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>5757.28</v>
       </c>
+      <c r="D6" t="n">
+        <v>5761.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,205 +542,268 @@
       <c r="C7" t="n">
         <v>56743.94</v>
       </c>
+      <c r="D7" t="n">
+        <v>32445.98</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20281.88</v>
-      </c>
+          <t>Consultatio Renta Variable</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>133575.31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22444.09</v>
+        <v>20281.88</v>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>19830.23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71634.56</v>
+        <v>22444.09</v>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>22261.34</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91072.45</v>
-      </c>
-      <c r="C11" t="n">
-        <v>90675.48</v>
+        <v>71634.56</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>71558.24000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>151.45</v>
+        <v>91072.45</v>
       </c>
       <c r="C12" t="n">
-        <v>154.56</v>
+        <v>90675.48</v>
+      </c>
+      <c r="D12" t="n">
+        <v>91272.37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1009.85</v>
+        <v>151.45</v>
       </c>
       <c r="C13" t="n">
-        <v>988.5599999999999</v>
+        <v>154.56</v>
+      </c>
+      <c r="D13" t="n">
+        <v>151.52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8200.209999999999</v>
+        <v>1009.85</v>
       </c>
       <c r="C14" t="n">
-        <v>7943.86</v>
+        <v>988.5599999999999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1015.86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>74332.42999999999</v>
+        <v>8200.209999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>74052</v>
+        <v>7943.86</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8279.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3625.45</v>
+        <v>74332.42999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>3676.3</v>
+        <v>74052</v>
+      </c>
+      <c r="D16" t="n">
+        <v>69718.81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4310.19</v>
+        <v>3625.45</v>
       </c>
       <c r="C17" t="n">
-        <v>4363.18</v>
+        <v>3676.3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3599.83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20052.71</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>4310.19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4363.18</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4345.96</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17731.57</v>
-      </c>
-      <c r="C19" t="n">
-        <v>17820.95</v>
+        <v>20052.71</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>19966.14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11202.22</v>
+        <v>17731.57</v>
       </c>
       <c r="C20" t="n">
-        <v>11152.86</v>
+        <v>17820.95</v>
+      </c>
+      <c r="D20" t="n">
+        <v>17620</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>231878.3</v>
+        <v>11202.22</v>
       </c>
       <c r="C21" t="n">
-        <v>231829.55</v>
+        <v>11152.86</v>
+      </c>
+      <c r="D21" t="n">
+        <v>11127.17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47899.21</v>
+        <v>231878.3</v>
       </c>
       <c r="C22" t="n">
-        <v>51270.78</v>
+        <v>231829.55</v>
+      </c>
+      <c r="D22" t="n">
+        <v>232207.78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>47899.21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>51270.78</v>
+      </c>
+      <c r="D23" t="n">
+        <v>49799.23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B24" t="n">
         <v>957984.29</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C24" t="n">
         <v>820332.47</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1045783.79</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>42236.37</v>
       </c>
+      <c r="E2" t="n">
+        <v>42764</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>78025.36</v>
       </c>
+      <c r="E3" t="n">
+        <v>78542.48</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>15624.13</v>
       </c>
+      <c r="E4" t="n">
+        <v>15166.13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>165160.98</v>
       </c>
+      <c r="E5" t="n">
+        <v>164589.86</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>5761.01</v>
       </c>
+      <c r="E6" t="n">
+        <v>5764.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,265 +565,343 @@
       <c r="D7" t="n">
         <v>32445.98</v>
       </c>
+      <c r="E7" t="n">
+        <v>31841.82</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>133575.31</v>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>32393.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>20281.88</v>
-      </c>
+          <t>Consultatio Acciones Argentina</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>19830.23</v>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>24994.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>22444.09</v>
-      </c>
+          <t>Consultatio Renta Variable</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>22261.34</v>
+        <v>133575.31</v>
+      </c>
+      <c r="E10" t="n">
+        <v>207286.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71634.56</v>
+        <v>20281.88</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>71558.24000000001</v>
+        <v>19830.23</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20469.21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>91072.45</v>
-      </c>
-      <c r="C12" t="n">
-        <v>90675.48</v>
-      </c>
+        <v>22444.09</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>91272.37</v>
+        <v>22261.34</v>
+      </c>
+      <c r="E12" t="n">
+        <v>22172.07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.45</v>
-      </c>
-      <c r="C13" t="n">
-        <v>154.56</v>
-      </c>
+        <v>71634.56</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>151.52</v>
+        <v>71558.24000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>70442.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1009.85</v>
+        <v>91072.45</v>
       </c>
       <c r="C14" t="n">
-        <v>988.5599999999999</v>
+        <v>90675.48</v>
       </c>
       <c r="D14" t="n">
-        <v>1015.86</v>
+        <v>91272.37</v>
+      </c>
+      <c r="E14" t="n">
+        <v>90535.71000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8200.209999999999</v>
+        <v>151.45</v>
       </c>
       <c r="C15" t="n">
-        <v>7943.86</v>
+        <v>154.56</v>
       </c>
       <c r="D15" t="n">
-        <v>8279.4</v>
+        <v>151.52</v>
+      </c>
+      <c r="E15" t="n">
+        <v>145.68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74332.42999999999</v>
+        <v>1009.85</v>
       </c>
       <c r="C16" t="n">
-        <v>74052</v>
+        <v>988.5599999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>69718.81</v>
+        <v>1015.86</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1006.91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3625.45</v>
+        <v>8200.209999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>3676.3</v>
+        <v>7943.86</v>
       </c>
       <c r="D17" t="n">
-        <v>3599.83</v>
+        <v>8279.4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8194.01</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4310.19</v>
+        <v>74332.42999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>4363.18</v>
+        <v>74052</v>
       </c>
       <c r="D18" t="n">
-        <v>4345.96</v>
+        <v>69718.81</v>
+      </c>
+      <c r="E18" t="n">
+        <v>69204.60000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20052.71</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>3625.45</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3676.3</v>
+      </c>
       <c r="D19" t="n">
-        <v>19966.14</v>
+        <v>3599.83</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3663.75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17731.57</v>
+        <v>4310.19</v>
       </c>
       <c r="C20" t="n">
-        <v>17820.95</v>
+        <v>4363.18</v>
       </c>
       <c r="D20" t="n">
-        <v>17620</v>
+        <v>4345.96</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9142.040000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11202.22</v>
-      </c>
-      <c r="C21" t="n">
-        <v>11152.86</v>
-      </c>
+        <v>20052.71</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>11127.17</v>
+        <v>19966.14</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19915.41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>231878.3</v>
+        <v>17731.57</v>
       </c>
       <c r="C22" t="n">
-        <v>231829.55</v>
+        <v>17820.95</v>
       </c>
       <c r="D22" t="n">
-        <v>232207.78</v>
+        <v>17620</v>
+      </c>
+      <c r="E22" t="n">
+        <v>17106.48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47899.21</v>
+        <v>11202.22</v>
       </c>
       <c r="C23" t="n">
-        <v>51270.78</v>
+        <v>11152.86</v>
       </c>
       <c r="D23" t="n">
-        <v>49799.23</v>
+        <v>11127.17</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11257.13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>231878.3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>231829.55</v>
+      </c>
+      <c r="D24" t="n">
+        <v>232207.78</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>47899.21</v>
+      </c>
+      <c r="C25" t="n">
+        <v>51270.78</v>
+      </c>
+      <c r="D25" t="n">
+        <v>49799.23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>43027.18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B26" t="n">
         <v>957984.29</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C26" t="n">
         <v>820332.47</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D26" t="n">
         <v>1045783.79</v>
+      </c>
+      <c r="E26" t="n">
+        <v>946597.95</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>42764</v>
       </c>
+      <c r="F2" t="n">
+        <v>42471.85</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>78542.48</v>
       </c>
+      <c r="F3" t="n">
+        <v>78599.72</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>15166.13</v>
       </c>
+      <c r="F4" t="n">
+        <v>15432.04</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>164589.86</v>
       </c>
+      <c r="F5" t="n">
+        <v>165426.14</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>5764.2</v>
       </c>
+      <c r="F6" t="n">
+        <v>5765.51</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -567,6 +587,9 @@
       </c>
       <c r="E7" t="n">
         <v>31841.82</v>
+      </c>
+      <c r="F7" t="n">
+        <v>31931.82</v>
       </c>
     </row>
     <row r="8">
@@ -581,6 +604,9 @@
       <c r="E8" t="n">
         <v>32393.18</v>
       </c>
+      <c r="F8" t="n">
+        <v>170462.96</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -594,6 +620,9 @@
       <c r="E9" t="n">
         <v>24994.59</v>
       </c>
+      <c r="F9" t="n">
+        <v>24906.4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -609,6 +638,9 @@
       <c r="E10" t="n">
         <v>207286.39</v>
       </c>
+      <c r="F10" t="n">
+        <v>207428.41</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -626,6 +658,9 @@
       <c r="E11" t="n">
         <v>20469.21</v>
       </c>
+      <c r="F11" t="n">
+        <v>20528.53</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -643,6 +678,9 @@
       <c r="E12" t="n">
         <v>22172.07</v>
       </c>
+      <c r="F12" t="n">
+        <v>22433.96</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -660,6 +698,9 @@
       <c r="E13" t="n">
         <v>70442.3</v>
       </c>
+      <c r="F13" t="n">
+        <v>71064.99000000001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -679,6 +720,9 @@
       <c r="E14" t="n">
         <v>90535.71000000001</v>
       </c>
+      <c r="F14" t="n">
+        <v>91468.96000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -698,6 +742,9 @@
       <c r="E15" t="n">
         <v>145.68</v>
       </c>
+      <c r="F15" t="n">
+        <v>135.52</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -717,6 +764,9 @@
       <c r="E16" t="n">
         <v>1006.91</v>
       </c>
+      <c r="F16" t="n">
+        <v>982.76</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -736,6 +786,9 @@
       <c r="E17" t="n">
         <v>8194.01</v>
       </c>
+      <c r="F17" t="n">
+        <v>8018.89</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -755,6 +808,9 @@
       <c r="E18" t="n">
         <v>69204.60000000001</v>
       </c>
+      <c r="F18" t="n">
+        <v>69538.27</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -774,6 +830,9 @@
       <c r="E19" t="n">
         <v>3663.75</v>
       </c>
+      <c r="F19" t="n">
+        <v>1932.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -792,6 +851,9 @@
       </c>
       <c r="E20" t="n">
         <v>9142.040000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9213.1</v>
       </c>
     </row>
     <row r="21">
@@ -810,6 +872,9 @@
       <c r="E21" t="n">
         <v>19915.41</v>
       </c>
+      <c r="F21" t="n">
+        <v>19998.51</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -829,6 +894,9 @@
       <c r="E22" t="n">
         <v>17106.48</v>
       </c>
+      <c r="F22" t="n">
+        <v>17747.81</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -848,6 +916,9 @@
       <c r="E23" t="n">
         <v>11257.13</v>
       </c>
+      <c r="F23" t="n">
+        <v>11208.06</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -865,6 +936,7 @@
         <v>232207.78</v>
       </c>
       <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -884,6 +956,9 @@
       <c r="E25" t="n">
         <v>43027.18</v>
       </c>
+      <c r="F25" t="n">
+        <v>49395.29</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -902,6 +977,9 @@
       </c>
       <c r="E26" t="n">
         <v>946597.95</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1086696.27</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>42471.85</v>
       </c>
+      <c r="G2" t="n">
+        <v>42649.57</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>78599.72</v>
       </c>
+      <c r="G3" t="n">
+        <v>77644.02</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>15432.04</v>
       </c>
+      <c r="G4" t="n">
+        <v>15689.73</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>165426.14</v>
       </c>
+      <c r="G5" t="n">
+        <v>165487.02</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>5765.51</v>
       </c>
+      <c r="G6" t="n">
+        <v>5761.04</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -590,6 +610,9 @@
       </c>
       <c r="F7" t="n">
         <v>31931.82</v>
+      </c>
+      <c r="G7" t="n">
+        <v>32153.18</v>
       </c>
     </row>
     <row r="8">
@@ -607,6 +630,9 @@
       <c r="F8" t="n">
         <v>170462.96</v>
       </c>
+      <c r="G8" t="n">
+        <v>170516.24</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -623,6 +649,9 @@
       <c r="F9" t="n">
         <v>24906.4</v>
       </c>
+      <c r="G9" t="n">
+        <v>23357.52</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -641,6 +670,9 @@
       <c r="F10" t="n">
         <v>207428.41</v>
       </c>
+      <c r="G10" t="n">
+        <v>207671.92</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -661,6 +693,9 @@
       <c r="F11" t="n">
         <v>20528.53</v>
       </c>
+      <c r="G11" t="n">
+        <v>20401.44</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -681,6 +716,9 @@
       <c r="F12" t="n">
         <v>22433.96</v>
       </c>
+      <c r="G12" t="n">
+        <v>22485.99</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -701,6 +739,9 @@
       <c r="F13" t="n">
         <v>71064.99000000001</v>
       </c>
+      <c r="G13" t="n">
+        <v>71133.89999999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -723,6 +764,9 @@
       <c r="F14" t="n">
         <v>91468.96000000001</v>
       </c>
+      <c r="G14" t="n">
+        <v>90658.50999999999</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -745,6 +789,9 @@
       <c r="F15" t="n">
         <v>135.52</v>
       </c>
+      <c r="G15" t="n">
+        <v>195.39</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -767,6 +814,9 @@
       <c r="F16" t="n">
         <v>982.76</v>
       </c>
+      <c r="G16" t="n">
+        <v>1008.35</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -789,6 +839,9 @@
       <c r="F17" t="n">
         <v>8018.89</v>
       </c>
+      <c r="G17" t="n">
+        <v>8011.96</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -811,6 +864,9 @@
       <c r="F18" t="n">
         <v>69538.27</v>
       </c>
+      <c r="G18" t="n">
+        <v>64631.61</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -833,6 +889,9 @@
       <c r="F19" t="n">
         <v>1932.06</v>
       </c>
+      <c r="G19" t="n">
+        <v>1911.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -854,6 +913,9 @@
       </c>
       <c r="F20" t="n">
         <v>9213.1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>9263.23</v>
       </c>
     </row>
     <row r="21">
@@ -875,6 +937,9 @@
       <c r="F21" t="n">
         <v>19998.51</v>
       </c>
+      <c r="G21" t="n">
+        <v>19902.77</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -897,6 +962,9 @@
       <c r="F22" t="n">
         <v>17747.81</v>
       </c>
+      <c r="G22" t="n">
+        <v>17374.52</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -919,6 +987,9 @@
       <c r="F23" t="n">
         <v>11208.06</v>
       </c>
+      <c r="G23" t="n">
+        <v>11200</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -937,6 +1008,7 @@
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -959,6 +1031,9 @@
       <c r="F25" t="n">
         <v>49395.29</v>
       </c>
+      <c r="G25" t="n">
+        <v>49050.42</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -980,6 +1055,9 @@
       </c>
       <c r="F26" t="n">
         <v>1086696.27</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1079109.16</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>42649.57</v>
       </c>
+      <c r="H2" t="n">
+        <v>42596.47</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>77644.02</v>
       </c>
+      <c r="H3" t="n">
+        <v>77941.92</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>15689.73</v>
       </c>
+      <c r="H4" t="n">
+        <v>15654.47</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>165487.02</v>
       </c>
+      <c r="H5" t="n">
+        <v>164530.82</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>5761.04</v>
       </c>
+      <c r="H6" t="n">
+        <v>5765.38</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -613,6 +633,9 @@
       </c>
       <c r="G7" t="n">
         <v>32153.18</v>
+      </c>
+      <c r="H7" t="n">
+        <v>31726</v>
       </c>
     </row>
     <row r="8">
@@ -633,6 +656,9 @@
       <c r="G8" t="n">
         <v>170516.24</v>
       </c>
+      <c r="H8" t="n">
+        <v>176449.16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -652,6 +678,9 @@
       <c r="G9" t="n">
         <v>23357.52</v>
       </c>
+      <c r="H9" t="n">
+        <v>23788.93</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -673,6 +702,9 @@
       <c r="G10" t="n">
         <v>207671.92</v>
       </c>
+      <c r="H10" t="n">
+        <v>207672.14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -696,6 +728,9 @@
       <c r="G11" t="n">
         <v>20401.44</v>
       </c>
+      <c r="H11" t="n">
+        <v>19892.37</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -719,6 +754,9 @@
       <c r="G12" t="n">
         <v>22485.99</v>
       </c>
+      <c r="H12" t="n">
+        <v>22686.52</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -742,6 +780,9 @@
       <c r="G13" t="n">
         <v>71133.89999999999</v>
       </c>
+      <c r="H13" t="n">
+        <v>70709.33</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -767,6 +808,9 @@
       <c r="G14" t="n">
         <v>90658.50999999999</v>
       </c>
+      <c r="H14" t="n">
+        <v>90732.69</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -792,6 +836,9 @@
       <c r="G15" t="n">
         <v>195.39</v>
       </c>
+      <c r="H15" t="n">
+        <v>157.91</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -817,6 +864,9 @@
       <c r="G16" t="n">
         <v>1008.35</v>
       </c>
+      <c r="H16" t="n">
+        <v>987.25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -842,6 +892,9 @@
       <c r="G17" t="n">
         <v>8011.96</v>
       </c>
+      <c r="H17" t="n">
+        <v>8152</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -867,6 +920,9 @@
       <c r="G18" t="n">
         <v>64631.61</v>
       </c>
+      <c r="H18" t="n">
+        <v>64078.38</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -892,6 +948,9 @@
       <c r="G19" t="n">
         <v>1911.25</v>
       </c>
+      <c r="H19" t="n">
+        <v>1940.48</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -916,6 +975,9 @@
       </c>
       <c r="G20" t="n">
         <v>9263.23</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9182.790000000001</v>
       </c>
     </row>
     <row r="21">
@@ -940,6 +1002,9 @@
       <c r="G21" t="n">
         <v>19902.77</v>
       </c>
+      <c r="H21" t="n">
+        <v>19886.85</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -965,6 +1030,9 @@
       <c r="G22" t="n">
         <v>17374.52</v>
       </c>
+      <c r="H22" t="n">
+        <v>17574.62</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -989,6 +1057,9 @@
       </c>
       <c r="G23" t="n">
         <v>11200</v>
+      </c>
+      <c r="H23" t="n">
+        <v>11108.25</v>
       </c>
     </row>
     <row r="24">
@@ -1009,6 +1080,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1034,6 +1106,9 @@
       <c r="G25" t="n">
         <v>49050.42</v>
       </c>
+      <c r="H25" t="n">
+        <v>49237.03</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1058,6 +1133,9 @@
       </c>
       <c r="G26" t="n">
         <v>1079109.16</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1083214.73</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>42596.47</v>
       </c>
+      <c r="I2" t="n">
+        <v>42510.83</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>77941.92</v>
       </c>
+      <c r="I3" t="n">
+        <v>77853.49000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>15654.47</v>
       </c>
+      <c r="I4" t="n">
+        <v>15358.39</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>164530.82</v>
       </c>
+      <c r="I5" t="n">
+        <v>164901.56</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>5765.38</v>
       </c>
+      <c r="I6" t="n">
+        <v>5758.79</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -636,6 +656,9 @@
       </c>
       <c r="H7" t="n">
         <v>31726</v>
+      </c>
+      <c r="I7" t="n">
+        <v>32126.04</v>
       </c>
     </row>
     <row r="8">
@@ -659,6 +682,9 @@
       <c r="H8" t="n">
         <v>176449.16</v>
       </c>
+      <c r="I8" t="n">
+        <v>176630.75</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -681,6 +707,9 @@
       <c r="H9" t="n">
         <v>23788.93</v>
       </c>
+      <c r="I9" t="n">
+        <v>60148.88</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -705,6 +734,9 @@
       <c r="H10" t="n">
         <v>207672.14</v>
       </c>
+      <c r="I10" t="n">
+        <v>207294.55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -731,6 +763,9 @@
       <c r="H11" t="n">
         <v>19892.37</v>
       </c>
+      <c r="I11" t="n">
+        <v>28607.05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -757,6 +792,9 @@
       <c r="H12" t="n">
         <v>22686.52</v>
       </c>
+      <c r="I12" t="n">
+        <v>29685.4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -783,6 +821,9 @@
       <c r="H13" t="n">
         <v>70709.33</v>
       </c>
+      <c r="I13" t="n">
+        <v>70654.58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -811,6 +852,9 @@
       <c r="H14" t="n">
         <v>90732.69</v>
       </c>
+      <c r="I14" t="n">
+        <v>90688.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -839,6 +883,9 @@
       <c r="H15" t="n">
         <v>157.91</v>
       </c>
+      <c r="I15" t="n">
+        <v>157.74</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -867,6 +914,9 @@
       <c r="H16" t="n">
         <v>987.25</v>
       </c>
+      <c r="I16" t="n">
+        <v>985.87</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -895,6 +945,9 @@
       <c r="H17" t="n">
         <v>8152</v>
       </c>
+      <c r="I17" t="n">
+        <v>2885.84</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -923,6 +976,9 @@
       <c r="H18" t="n">
         <v>64078.38</v>
       </c>
+      <c r="I18" t="n">
+        <v>64440.86</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -951,6 +1007,9 @@
       <c r="H19" t="n">
         <v>1940.48</v>
       </c>
+      <c r="I19" t="n">
+        <v>1948.99</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -978,6 +1037,9 @@
       </c>
       <c r="H20" t="n">
         <v>9182.790000000001</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9236.129999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1005,6 +1067,9 @@
       <c r="H21" t="n">
         <v>19886.85</v>
       </c>
+      <c r="I21" t="n">
+        <v>20059.13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1033,6 +1098,9 @@
       <c r="H22" t="n">
         <v>17574.62</v>
       </c>
+      <c r="I22" t="n">
+        <v>17546.61</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1060,6 +1128,9 @@
       </c>
       <c r="H23" t="n">
         <v>11108.25</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11185.75</v>
       </c>
     </row>
     <row r="24">
@@ -1081,6 +1152,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1109,6 +1181,9 @@
       <c r="H25" t="n">
         <v>49237.03</v>
       </c>
+      <c r="I25" t="n">
+        <v>51393.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1136,6 +1211,9 @@
       </c>
       <c r="H26" t="n">
         <v>1083214.73</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1130665.73</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>42510.83</v>
       </c>
+      <c r="J2" t="n">
+        <v>42795.79</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>77853.49000000001</v>
       </c>
+      <c r="J3" t="n">
+        <v>78655.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>15358.39</v>
       </c>
+      <c r="J4" t="n">
+        <v>15177.98</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>164901.56</v>
       </c>
+      <c r="J5" t="n">
+        <v>165397.31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>5758.79</v>
       </c>
+      <c r="J6" t="n">
+        <v>5761.35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -659,6 +679,9 @@
       </c>
       <c r="I7" t="n">
         <v>32126.04</v>
+      </c>
+      <c r="J7" t="n">
+        <v>32052.63</v>
       </c>
     </row>
     <row r="8">
@@ -685,6 +708,9 @@
       <c r="I8" t="n">
         <v>176630.75</v>
       </c>
+      <c r="J8" t="n">
+        <v>176491.61</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -710,6 +736,9 @@
       <c r="I9" t="n">
         <v>60148.88</v>
       </c>
+      <c r="J9" t="n">
+        <v>70287.49000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -737,6 +766,9 @@
       <c r="I10" t="n">
         <v>207294.55</v>
       </c>
+      <c r="J10" t="n">
+        <v>207431.14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -766,6 +798,9 @@
       <c r="I11" t="n">
         <v>28607.05</v>
       </c>
+      <c r="J11" t="n">
+        <v>39880.59</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -795,6 +830,9 @@
       <c r="I12" t="n">
         <v>29685.4</v>
       </c>
+      <c r="J12" t="n">
+        <v>40007.31</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -824,6 +862,9 @@
       <c r="I13" t="n">
         <v>70654.58</v>
       </c>
+      <c r="J13" t="n">
+        <v>71511.89999999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -855,6 +896,9 @@
       <c r="I14" t="n">
         <v>90688.5</v>
       </c>
+      <c r="J14" t="n">
+        <v>91326.47</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -886,6 +930,9 @@
       <c r="I15" t="n">
         <v>157.74</v>
       </c>
+      <c r="J15" t="n">
+        <v>157.61</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -917,6 +964,9 @@
       <c r="I16" t="n">
         <v>985.87</v>
       </c>
+      <c r="J16" t="n">
+        <v>989.4299999999999</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -948,6 +998,9 @@
       <c r="I17" t="n">
         <v>2885.84</v>
       </c>
+      <c r="J17" t="n">
+        <v>3298.26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -979,6 +1032,9 @@
       <c r="I18" t="n">
         <v>64440.86</v>
       </c>
+      <c r="J18" t="n">
+        <v>64722.97</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1010,6 +1066,9 @@
       <c r="I19" t="n">
         <v>1948.99</v>
       </c>
+      <c r="J19" t="n">
+        <v>1899.86</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1040,6 +1099,9 @@
       </c>
       <c r="I20" t="n">
         <v>9236.129999999999</v>
+      </c>
+      <c r="J20" t="n">
+        <v>9270.280000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1070,6 +1132,9 @@
       <c r="I21" t="n">
         <v>20059.13</v>
       </c>
+      <c r="J21" t="n">
+        <v>20069.41</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1101,6 +1166,9 @@
       <c r="I22" t="n">
         <v>17546.61</v>
       </c>
+      <c r="J22" t="n">
+        <v>17772.6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1131,6 +1199,9 @@
       </c>
       <c r="I23" t="n">
         <v>11185.75</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11336.66</v>
       </c>
     </row>
     <row r="24">
@@ -1153,6 +1224,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1184,6 +1256,9 @@
       <c r="I25" t="n">
         <v>51393.9</v>
       </c>
+      <c r="J25" t="n">
+        <v>53013.37</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1214,6 +1289,9 @@
       </c>
       <c r="I26" t="n">
         <v>1130665.73</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1166294.15</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>42795.79</v>
       </c>
+      <c r="K2" t="n">
+        <v>42523.23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>78655.5</v>
       </c>
+      <c r="K3" t="n">
+        <v>78527.81</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>15177.98</v>
       </c>
+      <c r="K4" t="n">
+        <v>15763.19</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>165397.31</v>
       </c>
+      <c r="K5" t="n">
+        <v>164726.69</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>5761.35</v>
       </c>
+      <c r="K6" t="n">
+        <v>5757.65</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -682,6 +702,9 @@
       </c>
       <c r="J7" t="n">
         <v>32052.63</v>
+      </c>
+      <c r="K7" t="n">
+        <v>31821.33</v>
       </c>
     </row>
     <row r="8">
@@ -711,6 +734,9 @@
       <c r="J8" t="n">
         <v>176491.61</v>
       </c>
+      <c r="K8" t="n">
+        <v>176616.78</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -739,6 +765,9 @@
       <c r="J9" t="n">
         <v>70287.49000000001</v>
       </c>
+      <c r="K9" t="n">
+        <v>134367.7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -769,6 +798,9 @@
       <c r="J10" t="n">
         <v>207431.14</v>
       </c>
+      <c r="K10" t="n">
+        <v>207667.78</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -801,6 +833,9 @@
       <c r="J11" t="n">
         <v>39880.59</v>
       </c>
+      <c r="K11" t="n">
+        <v>55809.54</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -833,6 +868,9 @@
       <c r="J12" t="n">
         <v>40007.31</v>
       </c>
+      <c r="K12" t="n">
+        <v>51927.73</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -865,6 +903,9 @@
       <c r="J13" t="n">
         <v>71511.89999999999</v>
       </c>
+      <c r="K13" t="n">
+        <v>70255.3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -899,6 +940,9 @@
       <c r="J14" t="n">
         <v>91326.47</v>
       </c>
+      <c r="K14" t="n">
+        <v>91301.89</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -933,6 +977,9 @@
       <c r="J15" t="n">
         <v>157.61</v>
       </c>
+      <c r="K15" t="n">
+        <v>148.38</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -967,6 +1014,9 @@
       <c r="J16" t="n">
         <v>989.4299999999999</v>
       </c>
+      <c r="K16" t="n">
+        <v>993.3200000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1001,6 +1051,9 @@
       <c r="J17" t="n">
         <v>3298.26</v>
       </c>
+      <c r="K17" t="n">
+        <v>3039.35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1035,6 +1088,9 @@
       <c r="J18" t="n">
         <v>64722.97</v>
       </c>
+      <c r="K18" t="n">
+        <v>64598.77</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1069,6 +1125,9 @@
       <c r="J19" t="n">
         <v>1899.86</v>
       </c>
+      <c r="K19" t="n">
+        <v>1999.91</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1102,6 +1161,9 @@
       </c>
       <c r="J20" t="n">
         <v>9270.280000000001</v>
+      </c>
+      <c r="K20" t="n">
+        <v>9241.889999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1135,6 +1197,9 @@
       <c r="J21" t="n">
         <v>20069.41</v>
       </c>
+      <c r="K21" t="n">
+        <v>19907.11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1169,6 +1234,9 @@
       <c r="J22" t="n">
         <v>17772.6</v>
       </c>
+      <c r="K22" t="n">
+        <v>17108.17</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1202,6 +1270,9 @@
       </c>
       <c r="J23" t="n">
         <v>11336.66</v>
+      </c>
+      <c r="K23" t="n">
+        <v>11159.48</v>
       </c>
     </row>
     <row r="24">
@@ -1225,6 +1296,7 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1259,6 +1331,9 @@
       <c r="J25" t="n">
         <v>53013.37</v>
       </c>
+      <c r="K25" t="n">
+        <v>57057.41</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1292,6 +1367,9 @@
       </c>
       <c r="J26" t="n">
         <v>1166294.15</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1255263</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>42523.23</v>
       </c>
+      <c r="L2" t="n">
+        <v>42633.25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>78527.81</v>
       </c>
+      <c r="L3" t="n">
+        <v>78703.67999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>15763.19</v>
       </c>
+      <c r="L4" t="n">
+        <v>15352.23</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>164726.69</v>
       </c>
+      <c r="L5" t="n">
+        <v>164764.06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>5757.65</v>
       </c>
+      <c r="L6" t="n">
+        <v>5761.26</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -705,6 +725,9 @@
       </c>
       <c r="K7" t="n">
         <v>31821.33</v>
+      </c>
+      <c r="L7" t="n">
+        <v>31730.31</v>
       </c>
     </row>
     <row r="8">
@@ -737,6 +760,9 @@
       <c r="K8" t="n">
         <v>176616.78</v>
       </c>
+      <c r="L8" t="n">
+        <v>176657.56</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -768,6 +794,9 @@
       <c r="K9" t="n">
         <v>134367.7</v>
       </c>
+      <c r="L9" t="n">
+        <v>178044.25</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -801,6 +830,9 @@
       <c r="K10" t="n">
         <v>207667.78</v>
       </c>
+      <c r="L10" t="n">
+        <v>207819.9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -836,6 +868,9 @@
       <c r="K11" t="n">
         <v>55809.54</v>
       </c>
+      <c r="L11" t="n">
+        <v>56394.16</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -871,6 +906,9 @@
       <c r="K12" t="n">
         <v>51927.73</v>
       </c>
+      <c r="L12" t="n">
+        <v>52493.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -906,6 +944,9 @@
       <c r="K13" t="n">
         <v>70255.3</v>
       </c>
+      <c r="L13" t="n">
+        <v>70589.12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -943,6 +984,9 @@
       <c r="K14" t="n">
         <v>91301.89</v>
       </c>
+      <c r="L14" t="n">
+        <v>90688.66</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -980,6 +1024,9 @@
       <c r="K15" t="n">
         <v>148.38</v>
       </c>
+      <c r="L15" t="n">
+        <v>132.65</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1017,6 +1064,9 @@
       <c r="K16" t="n">
         <v>993.3200000000001</v>
       </c>
+      <c r="L16" t="n">
+        <v>995.04</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1054,6 +1104,9 @@
       <c r="K17" t="n">
         <v>3039.35</v>
       </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1091,6 +1144,9 @@
       <c r="K18" t="n">
         <v>64598.77</v>
       </c>
+      <c r="L18" t="n">
+        <v>58086.98</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1128,6 +1184,9 @@
       <c r="K19" t="n">
         <v>1999.91</v>
       </c>
+      <c r="L19" t="n">
+        <v>1985.89</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1164,6 +1223,9 @@
       </c>
       <c r="K20" t="n">
         <v>9241.889999999999</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9228.23</v>
       </c>
     </row>
     <row r="21">
@@ -1200,6 +1262,9 @@
       <c r="K21" t="n">
         <v>19907.11</v>
       </c>
+      <c r="L21" t="n">
+        <v>20121.63</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1237,6 +1302,9 @@
       <c r="K22" t="n">
         <v>17108.17</v>
       </c>
+      <c r="L22" t="n">
+        <v>17471.35</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1273,6 +1341,9 @@
       </c>
       <c r="K23" t="n">
         <v>11159.48</v>
+      </c>
+      <c r="L23" t="n">
+        <v>11249.8</v>
       </c>
     </row>
     <row r="24">
@@ -1297,6 +1368,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1334,6 +1406,9 @@
       <c r="K25" t="n">
         <v>57057.41</v>
       </c>
+      <c r="L25" t="n">
+        <v>58677.42</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1370,6 +1445,9 @@
       </c>
       <c r="K26" t="n">
         <v>1255263</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1290903.21</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/HARG.xlsx
+++ b/backend/src/excel_handler/files/HARG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>42633.25</v>
       </c>
+      <c r="M2" t="n">
+        <v>42432.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,7 @@
       <c r="L3" t="n">
         <v>78703.67999999999</v>
       </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +618,9 @@
       <c r="L4" t="n">
         <v>15352.23</v>
       </c>
+      <c r="M4" t="n">
+        <v>15495.72</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +661,9 @@
       <c r="L5" t="n">
         <v>164764.06</v>
       </c>
+      <c r="M5" t="n">
+        <v>165237.67</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +704,9 @@
       <c r="L6" t="n">
         <v>5761.26</v>
       </c>
+      <c r="M6" t="n">
+        <v>5761.72</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -728,6 +746,9 @@
       </c>
       <c r="L7" t="n">
         <v>31730.31</v>
+      </c>
+      <c r="M7" t="n">
+        <v>32098.04</v>
       </c>
     </row>
     <row r="8">
@@ -763,6 +784,9 @@
       <c r="L8" t="n">
         <v>176657.56</v>
       </c>
+      <c r="M8" t="n">
+        <v>176539.05</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -797,6 +821,9 @@
       <c r="L9" t="n">
         <v>178044.25</v>
       </c>
+      <c r="M9" t="n">
+        <v>302855.9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -833,6 +860,9 @@
       <c r="L10" t="n">
         <v>207819.9</v>
       </c>
+      <c r="M10" t="n">
+        <v>207250.68</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -871,6 +901,9 @@
       <c r="L11" t="n">
         <v>56394.16</v>
       </c>
+      <c r="M11" t="n">
+        <v>56122.31</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -909,6 +942,9 @@
       <c r="L12" t="n">
         <v>52493.2</v>
       </c>
+      <c r="M12" t="n">
+        <v>52586.05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -947,6 +983,9 @@
       <c r="L13" t="n">
         <v>70589.12</v>
       </c>
+      <c r="M13" t="n">
+        <v>71540.17999999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -987,6 +1026,9 @@
       <c r="L14" t="n">
         <v>90688.66</v>
       </c>
+      <c r="M14" t="n">
+        <v>91328.47</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1027,6 +1069,9 @@
       <c r="L15" t="n">
         <v>132.65</v>
       </c>
+      <c r="M15" t="n">
+        <v>133.63</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1067,6 +1112,9 @@
       <c r="L16" t="n">
         <v>995.04</v>
       </c>
+      <c r="M16" t="n">
+        <v>1004.57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1107,6 +1155,9 @@
       <c r="L17" t="n">
         <v>0</v>
       </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1147,6 +1198,9 @@
       <c r="L18" t="n">
         <v>58086.98</v>
       </c>
+      <c r="M18" t="n">
+        <v>57606.75</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1187,6 +1241,7 @@
       <c r="L19" t="n">
         <v>1985.89</v>
       </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1226,6 +1281,9 @@
       </c>
       <c r="L20" t="n">
         <v>9228.23</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9252.889999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1265,6 +1323,9 @@
       <c r="L21" t="n">
         <v>20121.63</v>
       </c>
+      <c r="M21" t="n">
+        <v>19958.99</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1305,6 +1366,9 @@
       <c r="L22" t="n">
         <v>17471.35</v>
       </c>
+      <c r="M22" t="n">
+        <v>17166.13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1344,6 +1408,9 @@
       </c>
       <c r="L23" t="n">
         <v>11249.8</v>
+      </c>
+      <c r="M23" t="n">
+        <v>11067.17</v>
       </c>
     </row>
     <row r="24">
@@ -1369,6 +1436,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1409,6 +1477,9 @@
       <c r="L25" t="n">
         <v>58677.42</v>
       </c>
+      <c r="M25" t="n">
+        <v>66771.89999999999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1448,6 +1519,9 @@
       </c>
       <c r="L26" t="n">
         <v>1290903.21</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1335438.02</v>
       </c>
     </row>
   </sheetData>
